--- a/test/23.xlsx
+++ b/test/23.xlsx
@@ -5,7 +5,7 @@
     <workbookView tabRatio="600" windowHeight="14980" windowWidth="25600" xWindow="0" yWindow="1080"/>
   </bookViews>
   <sheets>
-    <sheet name="中文的sheet" sheetId="1" r:id="RaF2JXX1zgO7SgKNW"/>
+    <sheet name="中文的sheet" sheetId="1" r:id="RsR39uo4UFDfa5xHt"/>
   </sheets>
 </workbook>
 </file>
@@ -109,8 +109,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF4B7279"/>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Palatino Linotype"/>
       <scheme val="minor"/>
     </font>
@@ -6059,40 +6060,72 @@
   </cellStyleXfs>
   <cellXfs count="663">
     <xf applyNumberFormat="0" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="7" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="7" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="7" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="7" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="7" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="7" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="7" numFmtId="164" xfId="0" applyBorder="1"/>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyNumberFormat="0" applyFill="0" applyFont="1" borderId="2" fillId="0" fontId="13" numFmtId="164" xfId="0" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf applyNumberFormat="0" applyFill="0" applyFont="1" borderId="2" fillId="0" fontId="13" numFmtId="164" xfId="0" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf applyNumberFormat="0" applyFill="0" applyFont="1" borderId="2" fillId="0" fontId="13" numFmtId="164" xfId="0" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf applyNumberFormat="0" applyFill="0" applyFont="1" borderId="2" fillId="0" fontId="13" numFmtId="164" xfId="0" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf applyNumberFormat="0" applyFill="0" applyFont="1" borderId="2" fillId="0" fontId="13" numFmtId="164" xfId="0" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyNumberFormat="0" applyFill="0" applyFont="1" borderId="2" fillId="0" fontId="13" numFmtId="164" xfId="0" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="14" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="15" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="5" fillId="2" fontId="16" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="17" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="18" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="19" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="20" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="10" fillId="2" fontId="21" numFmtId="164" xfId="0" applyBorder="1"/>
-    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="11" fillId="2" fontId="22" numFmtId="164" xfId="0" applyBorder="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="14" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="15" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="5" fillId="2" fontId="16" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="17" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="18" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="19" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="20" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="10" fillId="2" fontId="21" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="11" fillId="2" fontId="22" numFmtId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyNumberFormat="0" applyFill="1" applyFont="1" borderId="12" fillId="3" fontId="30" numFmtId="164" xfId="0" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
